--- a/resources/Lijst_kranten_final.xlsx
+++ b/resources/Lijst_kranten_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbeelen/Documents/OtherProjects/KBRiR/KB-RiR/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175DD8DF-A9EE-4E49-A0A0-894CA9082639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF45EC8A-B69D-674B-B1FC-9A63D1CE516D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{91F516E1-98A8-3A4D-BD2D-AB140D50974F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="154">
   <si>
     <t>PPN</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Opregte Haarlemsche Courant</t>
   </si>
   <si>
-    <t>neutraal</t>
-  </si>
-  <si>
     <t>https://nl.wikipedia.org/wiki/Opregte_Haarlemsche_Courant</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Utrechts volksblad : sociaal-democratisch dagblad</t>
   </si>
   <si>
-    <t>sociaal-democratisch</t>
-  </si>
-  <si>
     <t>Middelburgsche courant</t>
   </si>
   <si>
@@ -173,18 +167,9 @@
     <t>Leeuwarder courant : hoofdblad van Friesland</t>
   </si>
   <si>
-    <t>gereformeerd?</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Leeuwarder_Courant</t>
-  </si>
-  <si>
     <t>De Telegraaf</t>
   </si>
   <si>
-    <t>populair/conservatief</t>
-  </si>
-  <si>
     <t>https://nl.wikipedia.org/wiki/De_Telegraaf</t>
   </si>
   <si>
@@ -263,9 +248,6 @@
     <t>De standaard</t>
   </si>
   <si>
-    <t>anti-revolutionair</t>
-  </si>
-  <si>
     <t>https://nl.wikipedia.org/wiki/De_Standaard_(Nederland)</t>
   </si>
   <si>
@@ -278,9 +260,6 @@
     <t>De grondwet</t>
   </si>
   <si>
-    <t>liberaal?</t>
-  </si>
-  <si>
     <t>'s-Gravenhage</t>
   </si>
   <si>
@@ -431,9 +410,6 @@
     <t>Nieuw weekblad : Venloosche courant</t>
   </si>
   <si>
-    <t>(liberaal-)katholiek</t>
-  </si>
-  <si>
     <t>https://nl.wikipedia.org/wiki/Venlosche_Courant</t>
   </si>
   <si>
@@ -461,9 +437,6 @@
     <t>Provincie</t>
   </si>
   <si>
-    <t>Wiki</t>
-  </si>
-  <si>
     <t>Noord Holland</t>
   </si>
   <si>
@@ -489,13 +462,46 @@
   </si>
   <si>
     <t>Limburg</t>
+  </si>
+  <si>
+    <t>Zuil</t>
+  </si>
+  <si>
+    <t>Katholiek</t>
+  </si>
+  <si>
+    <t>Protestant</t>
+  </si>
+  <si>
+    <t>Sociaal-Democratisch</t>
+  </si>
+  <si>
+    <t>Liberaal</t>
+  </si>
+  <si>
+    <t>Neutraal</t>
+  </si>
+  <si>
+    <t>Sociaal-democratisch</t>
+  </si>
+  <si>
+    <t>https://www.kb.nl/organisatie/onderzoek-expertise/digitaliseringsprojecten-in-de-kb/project-databank-digitale-dagbladen/geselecteerde-titels-en-selectieprocedure/selectie-van-titels/1814-1869</t>
+  </si>
+  <si>
+    <t>https://www.dezb.nl/zeeland/krantenbank-zeeland/middelburgsche-courant.html</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Conservatief</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -530,16 +536,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00000A"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -562,12 +580,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -581,6 +610,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -896,19 +930,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C56C86-AC35-884A-A86E-ED5FF7E5BB83}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -934,10 +969,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -954,22 +992,22 @@
         <v>1869</v>
       </c>
       <c r="F2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="J2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -977,7 +1015,7 @@
         <v>832337900</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1828</v>
@@ -986,30 +1024,33 @@
         <v>1970</v>
       </c>
       <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4">
         <v>1814</v>
@@ -1018,22 +1059,25 @@
         <v>1950</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -1041,7 +1085,7 @@
         <v>852882114</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1811</v>
@@ -1050,16 +1094,17 @@
         <v>1941</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -1067,7 +1112,7 @@
         <v>852115210</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1813</v>
@@ -1076,22 +1121,25 @@
         <v>1942</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
       <c r="J6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="K6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -1099,7 +1147,7 @@
         <v>831178310</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1865</v>
@@ -1108,16 +1156,16 @@
         <v>1994</v>
       </c>
       <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -1125,7 +1173,7 @@
         <v>833050346</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1823</v>
@@ -1133,17 +1181,23 @@
       <c r="E8">
         <v>1950</v>
       </c>
+      <c r="F8" t="s">
+        <v>148</v>
+      </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="K8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>13</v>
       </c>
@@ -1151,7 +1205,7 @@
         <v>850279356</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>1826</v>
@@ -1160,19 +1214,22 @@
         <v>1941</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>14</v>
       </c>
@@ -1180,7 +1237,7 @@
         <v>852121741</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>1816</v>
@@ -1188,17 +1245,26 @@
       <c r="E10">
         <v>1928</v>
       </c>
+      <c r="F10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -1206,7 +1272,7 @@
         <v>832688045</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>1846</v>
@@ -1215,30 +1281,33 @@
         <v>1958</v>
       </c>
       <c r="F11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
       <c r="J11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>1758</v>
@@ -1247,22 +1316,22 @@
         <v>1868</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>18</v>
       </c>
@@ -1270,7 +1339,7 @@
         <v>862876745</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>1835</v>
@@ -1279,16 +1348,16 @@
         <v>1945</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -1296,7 +1365,7 @@
         <v>833013246</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>1888</v>
@@ -1305,22 +1374,25 @@
         <v>1994</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>22</v>
       </c>
@@ -1328,7 +1400,7 @@
         <v>865061483</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>1892</v>
@@ -1336,23 +1408,23 @@
       <c r="E15">
         <v>1995</v>
       </c>
-      <c r="F15" t="s">
-        <v>46</v>
+      <c r="F15" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>24</v>
       </c>
@@ -1360,7 +1432,7 @@
         <v>832675288</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>1893</v>
@@ -1369,22 +1441,25 @@
         <v>1994</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
         <v>15</v>
       </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
       <c r="J16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>26</v>
       </c>
@@ -1392,7 +1467,7 @@
         <v>831445424</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>1875</v>
@@ -1401,16 +1476,16 @@
         <v>1975</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>27</v>
       </c>
@@ -1418,7 +1493,7 @@
         <v>833050788</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>1845</v>
@@ -1426,20 +1501,26 @@
       <c r="E18">
         <v>1944</v>
       </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>28</v>
       </c>
@@ -1447,7 +1528,7 @@
         <v>832005797</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>1901</v>
@@ -1456,19 +1537,19 @@
         <v>1994</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>31</v>
       </c>
@@ -1476,7 +1557,7 @@
         <v>832460079</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>1868</v>
@@ -1485,22 +1566,22 @@
         <v>1959</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>33</v>
       </c>
@@ -1508,7 +1589,7 @@
         <v>420642331</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>1869</v>
@@ -1517,19 +1598,19 @@
         <v>1955</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>35</v>
       </c>
@@ -1537,7 +1618,7 @@
         <v>833050672</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>1853</v>
@@ -1546,19 +1627,19 @@
         <v>1938</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>36</v>
       </c>
@@ -1566,7 +1647,7 @@
         <v>832916455</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>1773</v>
@@ -1575,19 +1656,19 @@
         <v>1857</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>37</v>
       </c>
@@ -1595,7 +1676,7 @@
         <v>862875838</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>1870</v>
@@ -1604,16 +1685,16 @@
         <v>1950</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>39</v>
       </c>
@@ -1621,7 +1702,7 @@
         <v>832401439</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>1871</v>
@@ -1629,20 +1710,26 @@
       <c r="E25">
         <v>1950</v>
       </c>
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43</v>
       </c>
@@ -1650,7 +1737,7 @@
         <v>400335409</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D26">
         <v>1829</v>
@@ -1659,16 +1746,16 @@
         <v>1905</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>47</v>
       </c>
@@ -1676,7 +1763,7 @@
         <v>832667536</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D27">
         <v>1872</v>
@@ -1685,22 +1772,25 @@
         <v>1944</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
         <v>15</v>
       </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
       <c r="J27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="K27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>49</v>
       </c>
@@ -1708,7 +1798,7 @@
         <v>852198787</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D28">
         <v>1851</v>
@@ -1717,16 +1807,16 @@
         <v>1920</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>51</v>
       </c>
@@ -1734,7 +1824,7 @@
         <v>830780084</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D29">
         <v>1853</v>
@@ -1742,20 +1832,23 @@
       <c r="E29">
         <v>1921</v>
       </c>
-      <c r="F29" t="s">
-        <v>81</v>
+      <c r="F29" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>52</v>
       </c>
@@ -1763,7 +1856,7 @@
         <v>832915580</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D30">
         <v>1879</v>
@@ -1772,19 +1865,19 @@
         <v>1947</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>54</v>
       </c>
@@ -1792,7 +1885,7 @@
         <v>832564818</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <v>1878</v>
@@ -1801,30 +1894,33 @@
         <v>1944</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="K31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D32">
         <v>1879</v>
@@ -1833,22 +1929,25 @@
         <v>1944</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>59</v>
       </c>
@@ -1856,7 +1955,7 @@
         <v>268599327</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D33">
         <v>1861</v>
@@ -1865,19 +1964,19 @@
         <v>1924</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>60</v>
       </c>
@@ -1885,7 +1984,7 @@
         <v>833105906</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D34">
         <v>1881</v>
@@ -1894,19 +1993,19 @@
         <v>1944</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>61</v>
       </c>
@@ -1914,7 +2013,7 @@
         <v>833066226</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>1869</v>
@@ -1923,22 +2022,25 @@
         <v>1931</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="K35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>62</v>
       </c>
@@ -1946,7 +2048,7 @@
         <v>832402826</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>1883</v>
@@ -1954,20 +2056,23 @@
       <c r="E36">
         <v>1944</v>
       </c>
+      <c r="F36" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="G36" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>67</v>
       </c>
@@ -1975,7 +2080,7 @@
         <v>833066838</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D37">
         <v>1813</v>
@@ -1983,17 +2088,20 @@
       <c r="E37">
         <v>1869</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>68</v>
       </c>
@@ -2001,7 +2109,7 @@
         <v>852175035</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D38">
         <v>1814</v>
@@ -2009,25 +2117,31 @@
       <c r="E38">
         <v>1870</v>
       </c>
+      <c r="F38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D39">
         <v>1861</v>
@@ -2036,16 +2150,16 @@
         <v>1917</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>72</v>
       </c>
@@ -2053,7 +2167,7 @@
         <v>852536267</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D40">
         <v>1813</v>
@@ -2062,16 +2176,16 @@
         <v>1867</v>
       </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>81</v>
       </c>
@@ -2079,7 +2193,7 @@
         <v>832495468</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D41">
         <v>1871</v>
@@ -2088,16 +2202,16 @@
         <v>1920</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>91</v>
       </c>
@@ -2105,7 +2219,7 @@
         <v>852886756</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D42">
         <v>1814</v>
@@ -2114,19 +2228,19 @@
         <v>1856</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>92</v>
       </c>
@@ -2134,7 +2248,7 @@
         <v>833066404</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D43">
         <v>1872</v>
@@ -2143,19 +2257,19 @@
         <v>1914</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>94</v>
       </c>
@@ -2163,7 +2277,7 @@
         <v>852175035</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D44">
         <v>1900</v>
@@ -2171,17 +2285,20 @@
       <c r="E44">
         <v>1939</v>
       </c>
+      <c r="F44" t="s">
+        <v>145</v>
+      </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J44" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>108</v>
       </c>
@@ -2189,7 +2306,7 @@
         <v>833079409</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D45">
         <v>1869</v>
@@ -2198,24 +2315,24 @@
         <v>1901</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D46">
         <v>1900</v>
@@ -2223,17 +2340,23 @@
       <c r="E46">
         <v>1931</v>
       </c>
+      <c r="F46" t="s">
+        <v>149</v>
+      </c>
       <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
         <v>15</v>
       </c>
-      <c r="I46" t="s">
-        <v>16</v>
-      </c>
       <c r="J46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="K46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>112</v>
       </c>
@@ -2241,7 +2364,7 @@
         <v>833042955</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D47">
         <v>1815</v>
@@ -2250,19 +2373,19 @@
         <v>1845</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I47" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>115</v>
       </c>
@@ -2270,7 +2393,7 @@
         <v>851125778</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D48">
         <v>1813</v>
@@ -2279,13 +2402,13 @@
         <v>1840</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I48" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J48" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2296,7 +2419,7 @@
         <v>832857130</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D49">
         <v>1827</v>
@@ -2305,19 +2428,19 @@
         <v>1853</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I49" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J49" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2328,7 +2451,7 @@
         <v>832874434</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D50">
         <v>1827</v>
@@ -2337,16 +2460,16 @@
         <v>1851</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J50" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2357,7 +2480,7 @@
         <v>833067087</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D51">
         <v>1840</v>
@@ -2366,13 +2489,13 @@
         <v>1862</v>
       </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I51" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J51" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2380,10 +2503,10 @@
         <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D52">
         <v>1879</v>
@@ -2392,19 +2515,19 @@
         <v>1900</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
         <v>15</v>
       </c>
-      <c r="I52" t="s">
-        <v>16</v>
-      </c>
       <c r="J52" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2415,7 +2538,7 @@
         <v>833013661</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D53">
         <v>1829</v>
@@ -2424,16 +2547,16 @@
         <v>1849</v>
       </c>
       <c r="F53" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" t="s">
         <v>34</v>
       </c>
-      <c r="H53" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" t="s">
-        <v>36</v>
-      </c>
       <c r="J53" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2444,7 +2567,7 @@
         <v>833013858</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D54">
         <v>1849</v>
@@ -2453,16 +2576,16 @@
         <v>1869</v>
       </c>
       <c r="F54" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" t="s">
         <v>34</v>
       </c>
-      <c r="H54" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" t="s">
-        <v>36</v>
-      </c>
       <c r="J54" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2473,7 +2596,7 @@
         <v>832520187</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D55">
         <v>1893</v>
@@ -2482,13 +2605,13 @@
         <v>1911</v>
       </c>
       <c r="H55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I55" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J55" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2499,7 +2622,7 @@
         <v>58510680</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D56">
         <v>1869</v>
@@ -2507,20 +2630,20 @@
       <c r="E56">
         <v>1886</v>
       </c>
-      <c r="F56" t="s">
-        <v>132</v>
+      <c r="F56" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I56" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J56" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2531,7 +2654,7 @@
         <v>832866024</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D57">
         <v>1853</v>
@@ -2540,19 +2663,19 @@
         <v>1869</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2563,7 +2686,7 @@
         <v>832916161</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D58">
         <v>1813</v>
@@ -2571,14 +2694,17 @@
       <c r="E58">
         <v>1826</v>
       </c>
+      <c r="F58" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="H58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J58" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2586,10 +2712,10 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D59">
         <v>1835</v>
@@ -2598,19 +2724,19 @@
         <v>1848</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I59" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J59" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2622,32 +2748,36 @@
     <hyperlink ref="G11" r:id="rId5" xr:uid="{5F16986A-C271-DC42-8BA5-7FF84B8A4117}"/>
     <hyperlink ref="G12" r:id="rId6" xr:uid="{E8A204C5-C087-544C-B501-60856D50EBF3}"/>
     <hyperlink ref="G14" r:id="rId7" xr:uid="{9DAF02CC-43F8-7D49-8689-FC6749F92BC7}"/>
-    <hyperlink ref="G15" r:id="rId8" xr:uid="{D4B24719-CFA4-4B44-B2F3-DC9975269AA2}"/>
-    <hyperlink ref="G16" r:id="rId9" xr:uid="{12D417AA-60F1-1746-BC7E-931B8CB4968C}"/>
-    <hyperlink ref="G18" r:id="rId10" xr:uid="{891483D5-E1EB-FC4A-B81A-F05AA5A9A993}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{4DA580D1-D497-E04C-B274-E4C74953E91B}"/>
-    <hyperlink ref="G20" r:id="rId12" xr:uid="{7E89CE02-83CD-4B4F-9B6C-FB0A61DE798F}"/>
-    <hyperlink ref="G21" r:id="rId13" xr:uid="{572207CF-53D7-964F-A2E4-0D4C68921905}"/>
-    <hyperlink ref="G22" r:id="rId14" xr:uid="{CD59164F-A27A-514D-B3A8-0DCEA90ABE79}"/>
-    <hyperlink ref="G23" r:id="rId15" xr:uid="{3EE977B2-4ACC-9540-9838-292482EB307A}"/>
-    <hyperlink ref="G25" r:id="rId16" xr:uid="{A333F441-A6A2-4B46-85C7-3ECD4C3DF712}"/>
-    <hyperlink ref="G27" r:id="rId17" xr:uid="{0BEA5836-112C-7043-91F5-0C776EB0E17B}"/>
-    <hyperlink ref="G30" r:id="rId18" xr:uid="{2B7309E7-0C6B-4240-A8B2-E759F4E8CC1A}"/>
-    <hyperlink ref="G31" r:id="rId19" xr:uid="{40A5FD27-061F-CD47-A7B4-E4C9AFF0E5C9}"/>
-    <hyperlink ref="G32" r:id="rId20" xr:uid="{AB989057-F7FE-8346-9AE6-46A114D5C8C0}"/>
-    <hyperlink ref="G33" r:id="rId21" xr:uid="{F56C0E1C-8411-B946-B758-0F5508C0D07B}"/>
-    <hyperlink ref="G34" r:id="rId22" xr:uid="{D8C60BFD-79BD-B04C-8F61-355C5B3C88B2}"/>
-    <hyperlink ref="G35" r:id="rId23" xr:uid="{A55E5799-F110-594A-9485-3BACD698C6CE}"/>
-    <hyperlink ref="G36" r:id="rId24" xr:uid="{27FF659A-33F9-6E44-A556-C5F17EA4F519}"/>
-    <hyperlink ref="G42" r:id="rId25" xr:uid="{0B46ED3E-BF03-9C4D-B994-34BD56EC4801}"/>
-    <hyperlink ref="G43" r:id="rId26" xr:uid="{00C0DE0A-8790-EE4C-B537-D25A94C09173}"/>
-    <hyperlink ref="G47" r:id="rId27" xr:uid="{7EC191F0-D0F9-1445-8A72-A515E6214BAB}"/>
-    <hyperlink ref="G49" r:id="rId28" xr:uid="{7A9F8DF2-4C8F-F540-9B3E-1E947258063B}"/>
-    <hyperlink ref="G50" r:id="rId29" xr:uid="{83DF8152-985E-2548-B6FB-A76C7D0FA20E}"/>
-    <hyperlink ref="G52" r:id="rId30" xr:uid="{D1252411-5A68-F84C-A937-E214F6E2701F}"/>
-    <hyperlink ref="G56" r:id="rId31" xr:uid="{F79401A9-8525-A44A-91E3-86A0B4601190}"/>
-    <hyperlink ref="G57" r:id="rId32" xr:uid="{1A6A804C-FC6B-CB4E-A940-AF2F66744175}"/>
-    <hyperlink ref="G59" r:id="rId33" xr:uid="{CD533346-2666-CC47-B7BD-DECF1DDBF791}"/>
+    <hyperlink ref="G16" r:id="rId8" xr:uid="{12D417AA-60F1-1746-BC7E-931B8CB4968C}"/>
+    <hyperlink ref="G18" r:id="rId9" xr:uid="{891483D5-E1EB-FC4A-B81A-F05AA5A9A993}"/>
+    <hyperlink ref="G19" r:id="rId10" xr:uid="{4DA580D1-D497-E04C-B274-E4C74953E91B}"/>
+    <hyperlink ref="G20" r:id="rId11" xr:uid="{7E89CE02-83CD-4B4F-9B6C-FB0A61DE798F}"/>
+    <hyperlink ref="G21" r:id="rId12" xr:uid="{572207CF-53D7-964F-A2E4-0D4C68921905}"/>
+    <hyperlink ref="G22" r:id="rId13" xr:uid="{CD59164F-A27A-514D-B3A8-0DCEA90ABE79}"/>
+    <hyperlink ref="G23" r:id="rId14" xr:uid="{3EE977B2-4ACC-9540-9838-292482EB307A}"/>
+    <hyperlink ref="G25" r:id="rId15" xr:uid="{A333F441-A6A2-4B46-85C7-3ECD4C3DF712}"/>
+    <hyperlink ref="G27" r:id="rId16" xr:uid="{0BEA5836-112C-7043-91F5-0C776EB0E17B}"/>
+    <hyperlink ref="G30" r:id="rId17" xr:uid="{2B7309E7-0C6B-4240-A8B2-E759F4E8CC1A}"/>
+    <hyperlink ref="G31" r:id="rId18" xr:uid="{40A5FD27-061F-CD47-A7B4-E4C9AFF0E5C9}"/>
+    <hyperlink ref="G32" r:id="rId19" xr:uid="{AB989057-F7FE-8346-9AE6-46A114D5C8C0}"/>
+    <hyperlink ref="G33" r:id="rId20" xr:uid="{F56C0E1C-8411-B946-B758-0F5508C0D07B}"/>
+    <hyperlink ref="G34" r:id="rId21" xr:uid="{D8C60BFD-79BD-B04C-8F61-355C5B3C88B2}"/>
+    <hyperlink ref="G35" r:id="rId22" xr:uid="{A55E5799-F110-594A-9485-3BACD698C6CE}"/>
+    <hyperlink ref="G36" r:id="rId23" xr:uid="{27FF659A-33F9-6E44-A556-C5F17EA4F519}"/>
+    <hyperlink ref="G42" r:id="rId24" xr:uid="{0B46ED3E-BF03-9C4D-B994-34BD56EC4801}"/>
+    <hyperlink ref="G43" r:id="rId25" xr:uid="{00C0DE0A-8790-EE4C-B537-D25A94C09173}"/>
+    <hyperlink ref="G47" r:id="rId26" xr:uid="{7EC191F0-D0F9-1445-8A72-A515E6214BAB}"/>
+    <hyperlink ref="G49" r:id="rId27" xr:uid="{7A9F8DF2-4C8F-F540-9B3E-1E947258063B}"/>
+    <hyperlink ref="G50" r:id="rId28" xr:uid="{83DF8152-985E-2548-B6FB-A76C7D0FA20E}"/>
+    <hyperlink ref="G52" r:id="rId29" xr:uid="{D1252411-5A68-F84C-A937-E214F6E2701F}"/>
+    <hyperlink ref="G56" r:id="rId30" xr:uid="{F79401A9-8525-A44A-91E3-86A0B4601190}"/>
+    <hyperlink ref="G57" r:id="rId31" xr:uid="{1A6A804C-FC6B-CB4E-A940-AF2F66744175}"/>
+    <hyperlink ref="G59" r:id="rId32" xr:uid="{CD533346-2666-CC47-B7BD-DECF1DDBF791}"/>
+    <hyperlink ref="G29" r:id="rId33" xr:uid="{56CBC6A4-E178-CE42-A575-88EAD29A4CDA}"/>
+    <hyperlink ref="G15" r:id="rId34" xr:uid="{06DCED1C-FB85-EB43-8A34-4F1FA30C85DD}"/>
+    <hyperlink ref="G10" r:id="rId35" xr:uid="{F1B1A89E-1200-A54E-96DB-C2C91D651A59}"/>
+    <hyperlink ref="G38" r:id="rId36" xr:uid="{48D8E641-4CEB-AB41-9EC7-69CD2D1A82BD}"/>
+    <hyperlink ref="G37" r:id="rId37" xr:uid="{FF11C8B1-586A-1948-8B86-F23B93C7D513}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/Lijst_kranten_final.xlsx
+++ b/resources/Lijst_kranten_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbeelen/Documents/OtherProjects/KBRiR/KB-RiR/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF45EC8A-B69D-674B-B1FC-9A63D1CE516D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBBD422-FC81-7E4C-92A4-AA168A240CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{91F516E1-98A8-3A4D-BD2D-AB140D50974F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="151">
   <si>
     <t>PPN</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Algemeen Handelsblad</t>
   </si>
   <si>
-    <t>liberaal</t>
-  </si>
-  <si>
     <t>https://nl.wikipedia.org/wiki/Algemeen_Handelsblad</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>De Tĳd : godsdienstig-staatkundig dagblad</t>
   </si>
   <si>
-    <t>katholiek</t>
-  </si>
-  <si>
     <t>https://nl.wikipedia.org/wiki/De_Tijd_(Nederland)</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
   </si>
   <si>
     <t>Dagblad van 's Gravenhage</t>
-  </si>
-  <si>
-    <t>conservatief</t>
   </si>
   <si>
     <t>https://nl.wikipedia.org/wiki/Dagblad_van_Zuid-Holland_en_%27s_Gravenhage</t>
@@ -932,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C56C86-AC35-884A-A86E-ED5FF7E5BB83}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -969,10 +960,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -992,7 +983,7 @@
         <v>1869</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -1004,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1024,22 +1015,22 @@
         <v>1970</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1047,10 +1038,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4">
         <v>1814</v>
@@ -1059,22 +1050,22 @@
         <v>1950</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1085,7 +1076,7 @@
         <v>852882114</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1811</v>
@@ -1097,10 +1088,10 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="8"/>
     </row>
@@ -1112,7 +1103,7 @@
         <v>852115210</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>1813</v>
@@ -1121,22 +1112,22 @@
         <v>1942</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
       <c r="J6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1147,7 +1138,7 @@
         <v>831178310</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>1865</v>
@@ -1156,13 +1147,13 @@
         <v>1994</v>
       </c>
       <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1173,7 +1164,7 @@
         <v>833050346</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>1823</v>
@@ -1182,19 +1173,19 @@
         <v>1950</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1205,7 +1196,7 @@
         <v>850279356</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>1826</v>
@@ -1214,19 +1205,19 @@
         <v>1941</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1237,7 +1228,7 @@
         <v>852121741</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>1816</v>
@@ -1246,22 +1237,22 @@
         <v>1928</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1272,7 +1263,7 @@
         <v>832688045</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>1846</v>
@@ -1281,22 +1272,22 @@
         <v>1958</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1304,10 +1295,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>1758</v>
@@ -1316,19 +1307,19 @@
         <v>1868</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1339,7 +1330,7 @@
         <v>862876745</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>1835</v>
@@ -1351,10 +1342,10 @@
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1365,7 +1356,7 @@
         <v>833013246</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>1888</v>
@@ -1374,22 +1365,22 @@
         <v>1994</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1400,7 +1391,7 @@
         <v>865061483</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>1892</v>
@@ -1409,19 +1400,19 @@
         <v>1995</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1432,7 +1423,7 @@
         <v>832675288</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>1893</v>
@@ -1441,22 +1432,22 @@
         <v>1994</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1467,7 +1458,7 @@
         <v>831445424</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>1875</v>
@@ -1479,10 +1470,10 @@
         <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1493,7 +1484,7 @@
         <v>833050788</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>1845</v>
@@ -1502,22 +1493,22 @@
         <v>1944</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1528,7 +1519,7 @@
         <v>832005797</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>1901</v>
@@ -1537,16 +1528,16 @@
         <v>1994</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1557,7 +1548,7 @@
         <v>832460079</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>1868</v>
@@ -1566,19 +1557,19 @@
         <v>1959</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1589,7 +1580,7 @@
         <v>420642331</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>1869</v>
@@ -1598,16 +1589,16 @@
         <v>1955</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1618,7 +1609,7 @@
         <v>833050672</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>1853</v>
@@ -1627,16 +1618,16 @@
         <v>1938</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1647,7 +1638,7 @@
         <v>832916455</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>1773</v>
@@ -1656,16 +1647,16 @@
         <v>1857</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1676,7 +1667,7 @@
         <v>862875838</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>1870</v>
@@ -1688,10 +1679,10 @@
         <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1702,7 +1693,7 @@
         <v>832401439</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>1871</v>
@@ -1711,22 +1702,22 @@
         <v>1950</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1737,7 +1728,7 @@
         <v>400335409</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>1829</v>
@@ -1749,10 +1740,10 @@
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1763,7 +1754,7 @@
         <v>832667536</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27">
         <v>1872</v>
@@ -1772,22 +1763,22 @@
         <v>1944</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
         <v>14</v>
       </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
       <c r="J27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1798,7 +1789,7 @@
         <v>852198787</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28">
         <v>1851</v>
@@ -1810,10 +1801,10 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1824,7 +1815,7 @@
         <v>830780084</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <v>1853</v>
@@ -1833,19 +1824,19 @@
         <v>1921</v>
       </c>
       <c r="F29" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1856,7 +1847,7 @@
         <v>832915580</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D30">
         <v>1879</v>
@@ -1865,16 +1856,16 @@
         <v>1947</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1885,7 +1876,7 @@
         <v>832564818</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31">
         <v>1878</v>
@@ -1894,22 +1885,22 @@
         <v>1944</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1917,10 +1908,10 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32">
         <v>1879</v>
@@ -1929,22 +1920,22 @@
         <v>1944</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1955,7 +1946,7 @@
         <v>268599327</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33">
         <v>1861</v>
@@ -1964,16 +1955,16 @@
         <v>1924</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1984,7 +1975,7 @@
         <v>833105906</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34">
         <v>1881</v>
@@ -1993,16 +1984,16 @@
         <v>1944</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2013,7 +2004,7 @@
         <v>833066226</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35">
         <v>1869</v>
@@ -2022,22 +2013,22 @@
         <v>1931</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -2048,7 +2039,7 @@
         <v>832402826</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36">
         <v>1883</v>
@@ -2057,19 +2048,19 @@
         <v>1944</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -2080,7 +2071,7 @@
         <v>833066838</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37">
         <v>1813</v>
@@ -2089,16 +2080,16 @@
         <v>1869</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -2109,7 +2100,7 @@
         <v>852175035</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D38">
         <v>1814</v>
@@ -2118,19 +2109,19 @@
         <v>1870</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H38" t="s">
         <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2138,10 +2129,10 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39">
         <v>1861</v>
@@ -2153,10 +2144,10 @@
         <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2167,7 +2158,7 @@
         <v>852536267</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <v>1813</v>
@@ -2179,10 +2170,10 @@
         <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2193,7 +2184,7 @@
         <v>832495468</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41">
         <v>1871</v>
@@ -2205,10 +2196,10 @@
         <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2219,7 +2210,7 @@
         <v>852886756</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42">
         <v>1814</v>
@@ -2228,16 +2219,16 @@
         <v>1856</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H42" t="s">
         <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -2248,7 +2239,7 @@
         <v>833066404</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43">
         <v>1872</v>
@@ -2257,16 +2248,16 @@
         <v>1914</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H43" t="s">
         <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2277,7 +2268,7 @@
         <v>852175035</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44">
         <v>1900</v>
@@ -2286,16 +2277,16 @@
         <v>1939</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -2306,7 +2297,7 @@
         <v>833079409</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45">
         <v>1869</v>
@@ -2318,10 +2309,10 @@
         <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -2329,10 +2320,10 @@
         <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D46">
         <v>1900</v>
@@ -2341,19 +2332,19 @@
         <v>1931</v>
       </c>
       <c r="F46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
         <v>14</v>
       </c>
-      <c r="I46" t="s">
-        <v>15</v>
-      </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -2364,7 +2355,7 @@
         <v>833042955</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D47">
         <v>1815</v>
@@ -2373,16 +2364,16 @@
         <v>1845</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
         <v>9</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2393,7 +2384,7 @@
         <v>851125778</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D48">
         <v>1813</v>
@@ -2405,10 +2396,10 @@
         <v>9</v>
       </c>
       <c r="I48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2419,7 +2410,7 @@
         <v>832857130</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D49">
         <v>1827</v>
@@ -2428,19 +2419,19 @@
         <v>1853</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2451,7 +2442,7 @@
         <v>832874434</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D50">
         <v>1827</v>
@@ -2460,16 +2451,16 @@
         <v>1851</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H50" t="s">
         <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2480,7 +2471,7 @@
         <v>833067087</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D51">
         <v>1840</v>
@@ -2492,10 +2483,10 @@
         <v>9</v>
       </c>
       <c r="I51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2503,10 +2494,10 @@
         <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D52">
         <v>1879</v>
@@ -2515,19 +2506,19 @@
         <v>1900</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
         <v>14</v>
       </c>
-      <c r="I52" t="s">
-        <v>15</v>
-      </c>
       <c r="J52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2538,7 +2529,7 @@
         <v>833013661</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D53">
         <v>1829</v>
@@ -2547,16 +2538,16 @@
         <v>1849</v>
       </c>
       <c r="F53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
       </c>
       <c r="I53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2567,7 +2558,7 @@
         <v>833013858</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D54">
         <v>1849</v>
@@ -2576,16 +2567,16 @@
         <v>1869</v>
       </c>
       <c r="F54" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
       </c>
       <c r="I54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2596,7 +2587,7 @@
         <v>832520187</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D55">
         <v>1893</v>
@@ -2608,10 +2599,10 @@
         <v>9</v>
       </c>
       <c r="I55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2622,7 +2613,7 @@
         <v>58510680</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D56">
         <v>1869</v>
@@ -2631,19 +2622,19 @@
         <v>1886</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
       </c>
       <c r="I56" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2654,7 +2645,7 @@
         <v>832866024</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D57">
         <v>1853</v>
@@ -2663,19 +2654,19 @@
         <v>1869</v>
       </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H57" t="s">
         <v>9</v>
       </c>
       <c r="I57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2686,7 +2677,7 @@
         <v>832916161</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D58">
         <v>1813</v>
@@ -2695,16 +2686,16 @@
         <v>1826</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J58" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2712,10 +2703,10 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D59">
         <v>1835</v>
@@ -2724,19 +2715,19 @@
         <v>1848</v>
       </c>
       <c r="F59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H59" t="s">
         <v>9</v>
       </c>
       <c r="I59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
